--- a/Documentação/Planejamento TCC.xlsx
+++ b/Documentação/Planejamento TCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Desktop\AluCar\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FA8437-D511-430E-AFF9-510C07DF2135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FB9E90-DA46-444D-8E4B-E1516CF7D1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CB7F6AA-907F-4E83-A984-F051E517D240}"/>
   </bookViews>
@@ -268,25 +268,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6CF668-907D-47DF-B0F7-5A0C05D1BD55}">
   <dimension ref="B2:P1048565"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,13 +635,13 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="12">
         <v>44776</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="12">
         <v>44783</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -652,9 +652,9 @@
       </c>
     </row>
     <row r="4" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
@@ -663,13 +663,13 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>44783</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>44790</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -680,9 +680,9 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
@@ -691,13 +691,13 @@
       </c>
     </row>
     <row r="7" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="12">
         <v>44790</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="12">
         <v>44797</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -710,25 +710,25 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="16"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <v>44797</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="13">
         <v>44804</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -739,9 +739,9 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="6" t="s">
         <v>8</v>
       </c>
@@ -750,13 +750,13 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="12">
         <v>44804</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="12">
         <v>44818</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -767,9 +767,9 @@
       </c>
     </row>
     <row r="12" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
@@ -778,13 +778,13 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="13">
         <v>44811</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="13">
         <v>44818</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -795,9 +795,9 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="6" t="s">
         <v>8</v>
       </c>
@@ -806,13 +806,13 @@
       </c>
     </row>
     <row r="15" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="12">
         <v>44818</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="12">
         <v>44825</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -823,9 +823,9 @@
       </c>
     </row>
     <row r="16" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="3" t="s">
         <v>8</v>
       </c>
@@ -834,13 +834,13 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="13">
         <v>44825</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="13">
         <v>44832</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -851,9 +851,9 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="6" t="s">
         <v>8</v>
       </c>
@@ -862,13 +862,13 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="12">
         <v>44832</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="12">
         <v>44839</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -879,9 +879,9 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
@@ -890,13 +890,13 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="13">
         <v>44839</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="13">
         <v>44853</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -907,9 +907,9 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="6" t="s">
         <v>8</v>
       </c>
@@ -918,13 +918,13 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="12">
         <v>44846</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="12">
         <v>44853</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -935,9 +935,9 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
@@ -946,13 +946,13 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="13">
         <v>44853</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="13">
         <v>44860</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -963,9 +963,9 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="6" t="s">
         <v>8</v>
       </c>
@@ -974,13 +974,13 @@
       </c>
     </row>
     <row r="27" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="12">
         <v>44860</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="12">
         <v>44867</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -991,69 +991,69 @@
       </c>
     </row>
     <row r="28" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="11">
+      <c r="B29" s="16"/>
+      <c r="C29" s="13">
         <v>44867</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="13">
         <v>44874</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="6"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="12">
         <v>44874</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="12">
         <v>44881</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="3"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="11">
+      <c r="B33" s="16"/>
+      <c r="C33" s="13">
         <v>44881</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="13">
         <v>44888</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
     </row>
@@ -1063,24 +1063,20 @@
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{EA6CF668-907D-47DF-B0F7-5A0C05D1BD55}"/>
   <mergeCells count="48">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="D15:D16"/>
@@ -1097,20 +1093,24 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
